--- a/rectangle_packing/paklijsten/paklijst2.xlsx
+++ b/rectangle_packing/paklijsten/paklijst2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="212">
   <si>
     <t xml:space="preserve">Aantal</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">Dhr. MLM Hautvast</t>
   </si>
   <si>
-    <t xml:space="preserve">5017.0210</t>
+    <t xml:space="preserve">“5017.0210”</t>
   </si>
   <si>
     <t xml:space="preserve">Deurmat Ambiant Entrance 5017.0246
@@ -93,7 +93,7 @@
     <t xml:space="preserve">Cadeauwinkel de Duizenpoot</t>
   </si>
   <si>
-    <t xml:space="preserve">5017.0246</t>
+    <t xml:space="preserve">“5017.0246”</t>
   </si>
   <si>
     <t xml:space="preserve">Deurmat Ambiant Lobby 2400.0205
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Dhr. Radjab</t>
   </si>
   <si>
-    <t xml:space="preserve">2400.0205</t>
+    <t xml:space="preserve">“2400.0205”</t>
   </si>
   <si>
     <t xml:space="preserve">Deurmat Ambiant Lobby 2400.0205_x000D_
@@ -793,6 +793,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gekozendatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5017.0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5017.0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400.0205</t>
   </si>
   <si>
     <t xml:space="preserve">Carbon 2406.0246</t>
@@ -843,7 +852,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="M/D/YYYY\ H:MM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -865,6 +874,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -944,7 +959,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,28 +972,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -989,79 +1020,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1084,8 +1103,8 @@
   </sheetPr>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1244,7 +1263,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="70.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
@@ -1272,14 +1291,14 @@
       <c r="I5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -1307,14 +1326,14 @@
       <c r="I6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -1342,14 +1361,14 @@
       <c r="I7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
@@ -1377,14 +1396,14 @@
       <c r="I8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1431,7 @@
       <c r="I9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -3508,35 +3527,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="4" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="5" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
@@ -3783,35 +3802,35 @@
       <c r="IU1" s="0"/>
       <c r="IV1" s="0"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+    <row r="2" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
         <v>44148.3372222222</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
         <v>104</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -4071,2243 +4090,2243 @@
       <c r="IU4" s="0"/>
       <c r="IV4" s="0"/>
     </row>
-    <row r="5" s="18" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+    <row r="5" s="19" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="24" t="n">
         <v>182</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="n">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="n">
         <v>120329935</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
+      <c r="K6" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="F7" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="n">
+      <c r="F7" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="n">
         <v>120344241</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
+      <c r="K7" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="28" t="n">
         <v>44146</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="n">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="n">
         <v>120344042</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>26</v>
+      <c r="K8" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="24" t="n">
         <v>75</v>
       </c>
-      <c r="F9" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="n">
+      <c r="F9" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="n">
         <v>120344284</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>26</v>
+      <c r="K9" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="24" t="n">
         <v>250</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F10" s="28" t="n">
         <v>44146</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26" t="n">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="n">
         <v>120344105</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
+      <c r="K10" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="24" t="n">
         <v>118</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="28" t="n">
         <v>44146</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="n">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="n">
         <v>120344093</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
+      <c r="K11" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="n">
+      <c r="F12" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="n">
         <v>120344208</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>26</v>
+      <c r="K12" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="n">
+      <c r="F13" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="n">
         <v>120344208</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
+      <c r="K13" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="F14" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="n">
+      <c r="F14" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="n">
         <v>120344252</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="n">
+        <v>120344098</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F16" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="n">
+        <v>120344194</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="28" t="n">
+        <v>43993</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="n">
+        <v>120342734</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>160</v>
+      </c>
+      <c r="F18" s="28" t="n">
+        <v>44115</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="n">
+        <v>120343620</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="n">
+        <v>120344066</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="n">
+        <v>120343832</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="n">
+        <v>120344071</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>158</v>
+      </c>
+      <c r="F22" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="n">
+        <v>120344071</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="n">
+        <v>120344090</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="n">
+        <v>120344090</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="n">
+        <v>120344111</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27" t="n">
+        <v>120344204</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27" t="n">
+        <v>120344307</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="24" t="n">
+        <v>74</v>
+      </c>
+      <c r="F28" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="n">
+        <v>120344112</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27" t="n">
+        <v>120344308</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27" t="n">
+        <v>120344094</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="24" t="n">
+        <v>105</v>
+      </c>
+      <c r="F31" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27" t="n">
+        <v>120344255</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F32" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27" t="n">
+        <v>120344196</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="n">
+        <v>120344195</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F34" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27" t="n">
+        <v>120344184</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27" t="n">
+        <v>120343934</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="n">
+        <v>120344135</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="27" t="n">
+        <v>120344129</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="24" t="n">
+        <v>95</v>
+      </c>
+      <c r="F38" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="n">
+        <v>120344100</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27" t="n">
+        <v>120344295</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="24" t="n">
+        <v>173</v>
+      </c>
+      <c r="F40" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27" t="n">
+        <v>120344266</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27" t="n">
+        <v>120344130</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27" t="n">
+        <v>120344293</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F43" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27" t="n">
+        <v>120344254</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="n">
+        <v>120343858</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F45" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27" t="n">
+        <v>120344250</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27" t="n">
+        <v>120344320</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27" t="n">
+        <v>120343945</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F48" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="n">
+        <v>120344313</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="n">
+        <v>120344186</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="24" t="n">
+        <v>170</v>
+      </c>
+      <c r="F50" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27" t="n">
+        <v>120343922</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27" t="n">
+        <v>120344293</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="24" t="n">
+        <v>78</v>
+      </c>
+      <c r="F52" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27" t="n">
+        <v>120343886</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J52" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="24" t="n">
+        <v>78</v>
+      </c>
+      <c r="F53" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27" t="n">
+        <v>120343886</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27" t="n">
+        <v>120343945</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27" t="n">
+        <v>120344186</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="24" t="n">
+        <v>73</v>
+      </c>
+      <c r="F56" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27" t="n">
+        <v>120343832</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F57" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27" t="n">
+        <v>120344194</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27" t="n">
+        <v>120344094</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F59" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27" t="n">
+        <v>120344254</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="F60" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27" t="n">
+        <v>120344129</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="F61" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27" t="n">
+        <v>120344129</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27" t="n">
+        <v>120344252</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="24" t="n">
+        <v>94</v>
+      </c>
+      <c r="F63" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27" t="n">
+        <v>120344042</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="F64" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27" t="n">
+        <v>120344057</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J64" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F65" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27" t="n">
+        <v>120344066</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="24" t="n">
+        <v>120</v>
+      </c>
+      <c r="F66" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27" t="n">
+        <v>120344241</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="24" t="n">
+        <v>94</v>
+      </c>
+      <c r="F67" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27" t="n">
+        <v>120344238</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="24" t="n">
+        <v>95</v>
+      </c>
+      <c r="F68" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="n">
+        <v>120344100</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F69" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27" t="n">
+        <v>120344250</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" s="30" t="n">
+        <v>130</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" s="28" t="n">
+        <v>44085</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27" t="n">
+        <v>120343455</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="24" t="n">
+        <v>70</v>
+      </c>
+      <c r="F71" s="28" t="n">
+        <v>44146</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27" t="n">
+        <v>120343972</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J71" s="5" t="n">
         <v>198</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="27" t="n">
+      <c r="K71" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="24" t="n">
+        <v>94</v>
+      </c>
+      <c r="F72" s="28" t="n">
+        <v>44176</v>
+      </c>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="n">
+        <v>120344238</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="24" t="n">
+        <v>70</v>
+      </c>
+      <c r="F73" s="28" t="n">
         <v>44146</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="n">
-        <v>120344098</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>123</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="F16" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="n">
-        <v>120344194</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="27" t="n">
-        <v>43993</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26" t="n">
-        <v>120342734</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>193</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>160</v>
-      </c>
-      <c r="F18" s="27" t="n">
-        <v>44115</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26" t="n">
-        <v>120343620</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="4" t="n">
+      <c r="G73" s="27"/>
+      <c r="H73" s="27" t="n">
+        <v>120343972</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J73" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F19" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26" t="n">
-        <v>120344066</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <v>73</v>
-      </c>
-      <c r="F20" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26" t="n">
-        <v>120343832</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F21" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="n">
-        <v>120344071</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="23" t="n">
-        <v>158</v>
-      </c>
-      <c r="F22" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="n">
-        <v>120344071</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="n">
-        <v>120344090</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="n">
-        <v>120344090</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26" t="n">
-        <v>120344111</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="23" t="n">
-        <v>65</v>
-      </c>
-      <c r="F26" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="n">
-        <v>120344204</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F27" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="n">
-        <v>120344307</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="F28" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="n">
-        <v>120344112</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F29" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26" t="n">
-        <v>120344308</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="n">
-        <v>120344094</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="23" t="n">
-        <v>105</v>
-      </c>
-      <c r="F31" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="n">
-        <v>120344255</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26" t="n">
-        <v>120344196</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F33" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="n">
-        <v>120344195</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F34" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26" t="n">
-        <v>120344184</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F35" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26" t="n">
-        <v>120343934</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F36" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26" t="n">
-        <v>120344135</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="23" t="n">
-        <v>75</v>
-      </c>
-      <c r="F37" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="26" t="n">
-        <v>120344129</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="23" t="n">
-        <v>95</v>
-      </c>
-      <c r="F38" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26" t="n">
-        <v>120344100</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26" t="n">
-        <v>120344295</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="23" t="n">
-        <v>173</v>
-      </c>
-      <c r="F40" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26" t="n">
-        <v>120344266</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F41" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26" t="n">
-        <v>120344130</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F42" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26" t="n">
-        <v>120344293</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F43" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26" t="n">
-        <v>120344254</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="n">
-        <v>120343858</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="23" t="n">
-        <v>58</v>
-      </c>
-      <c r="F45" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="n">
-        <v>120344250</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="n">
-        <v>120344320</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26" t="n">
-        <v>120343945</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F48" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26" t="n">
-        <v>120344313</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="n">
-        <v>120344186</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J49" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="23" t="n">
-        <v>170</v>
-      </c>
-      <c r="F50" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26" t="n">
-        <v>120343922</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J50" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F51" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26" t="n">
-        <v>120344293</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J51" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="F52" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26" t="n">
-        <v>120343886</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="F53" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26" t="n">
-        <v>120343886</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26" t="n">
-        <v>120343945</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J54" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26" t="n">
-        <v>120344186</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J55" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="23" t="n">
-        <v>73</v>
-      </c>
-      <c r="F56" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26" t="n">
-        <v>120343832</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="23" t="n">
-        <v>57</v>
-      </c>
-      <c r="F57" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26" t="n">
-        <v>120344194</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26" t="n">
-        <v>120344094</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F59" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26" t="n">
-        <v>120344254</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="23" t="n">
-        <v>75</v>
-      </c>
-      <c r="F60" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26" t="n">
-        <v>120344129</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J60" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="23" t="n">
-        <v>75</v>
-      </c>
-      <c r="F61" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26" t="n">
-        <v>120344129</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J61" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F62" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26" t="n">
-        <v>120344252</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="F63" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26" t="n">
-        <v>120344042</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="23" t="n">
-        <v>180</v>
-      </c>
-      <c r="F64" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26" t="n">
-        <v>120344057</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J64" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F65" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26" t="n">
-        <v>120344066</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J65" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="23" t="n">
-        <v>120</v>
-      </c>
-      <c r="F66" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26" t="n">
-        <v>120344241</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="F67" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26" t="n">
-        <v>120344238</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J67" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="23" t="n">
-        <v>95</v>
-      </c>
-      <c r="F68" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="n">
-        <v>120344100</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="J68" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="23" t="n">
-        <v>58</v>
-      </c>
-      <c r="F69" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26" t="n">
-        <v>120344250</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J69" s="29" t="n">
-        <v>130</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="23" t="n">
-        <v>100</v>
-      </c>
-      <c r="F70" s="27" t="n">
-        <v>44085</v>
-      </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26" t="n">
-        <v>120343455</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="J70" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="77.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="F71" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26" t="n">
-        <v>120343972</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J71" s="4" t="n">
-        <v>198</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="F72" s="27" t="n">
-        <v>44176</v>
-      </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26" t="n">
-        <v>120344238</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J72" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="F73" s="27" t="n">
-        <v>44146</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26" t="n">
-        <v>120343972</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J73" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>208</v>
+      <c r="K73" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
